--- a/data/recipe_list.xlsx
+++ b/data/recipe_list.xlsx
@@ -5,30 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/ned_hulseman_ey_com/Documents/Desktop/t/hulseman-site/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HU517FJ\OneDrive - EY\Desktop\t\hulseman-site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="14_{4E0B86E8-A170-4B13-AC27-2453BEA09385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FA0CAF3F-9C8C-45C6-A15A-5566BD4D4FB3}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="14_{4E0B86E8-A170-4B13-AC27-2453BEA09385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{612D75E0-8E7E-400B-85E1-B7E1C30D25E8}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cookbook" sheetId="1" r:id="rId1"/>
+    <sheet name="Ingredients" sheetId="4" r:id="rId2"/>
+    <sheet name="Recipe" sheetId="2" r:id="rId3"/>
+    <sheet name="Directions" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Food</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Chicken Soup</t>
   </si>
@@ -48,9 +54,6 @@
     <t>Roasted Lamb</t>
   </si>
   <si>
-    <t>Season</t>
-  </si>
-  <si>
     <t>Winter</t>
   </si>
   <si>
@@ -64,16 +67,156 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>ingredient_id</t>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>meal_id</t>
+  </si>
+  <si>
+    <t>step_id</t>
+  </si>
+  <si>
+    <t>directions_id</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>soure_type</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>cookbook</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>The Happy Fat Family</t>
+  </si>
+  <si>
+    <t>Pokey</t>
+  </si>
+  <si>
+    <t>food_name</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>food_type</t>
+  </si>
+  <si>
+    <t>crockpot</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>directions</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>put the flour in</t>
+  </si>
+  <si>
+    <t>stir the pot</t>
+  </si>
+  <si>
+    <t>dance a jig</t>
+  </si>
+  <si>
+    <t>say yayyyy its done</t>
+  </si>
+  <si>
+    <t>add sugar and pepper</t>
+  </si>
+  <si>
+    <t>make cake</t>
+  </si>
+  <si>
+    <t>add frosting</t>
+  </si>
+  <si>
+    <t>yayyy</t>
+  </si>
+  <si>
+    <t>step_name</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,13 +239,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,68 +528,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{CD5E16C6-B4C5-43B0-9ECF-90745C2E298F}"/>
+    <hyperlink ref="F5:F7" r:id="rId2" display="www.google.com" xr:uid="{FF12B5CE-3823-41CF-849D-B9446869B5A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7389A52-FC42-4D84-A5CA-9016925F427F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>1574</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>1680</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>5573</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>2228</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +779,331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB4B1F-392B-417A-9D8B-D45ADC3E8972}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>1574</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>100001574</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(B2, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Flour</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>1680</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C5" si="0">A3&amp;B3</f>
+        <v>100001680</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(B3, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Sugar</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>5573</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>100005573</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(B4, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Chicken</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>2228</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>100002228</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(B5, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Pepper</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6">
+        <v>1574</v>
+      </c>
+      <c r="C6" t="str">
+        <f>A6&amp;B6</f>
+        <v>100011574</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Flour</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10001</v>
+      </c>
+      <c r="B7">
+        <v>1680</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C9" si="1">A7&amp;B7</f>
+        <v>100011680</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Sugar</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10001</v>
+      </c>
+      <c r="B8">
+        <v>5573</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>100015573</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Chicken</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10001</v>
+      </c>
+      <c r="B9">
+        <v>2228</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>100012228</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(B9, Ingredients!$A$2:$B$5,2,0)</f>
+        <v>Pepper</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A432811-DA0F-49E8-84BF-3178ECE51FD6}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>10000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">A3&amp;B3</f>
+        <v>10000002</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>10000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>10000004</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>10001001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>10001002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>10001003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>10001004</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C757A5EEC22CA47A9A0D8BE7ACBDCA6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="08d91d4ec4a5f01df408eb68c3470a72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="648b8e95-4738-46ce-a500-26cf62829c60" xmlns:ns4="8b6e2155-aeea-4c2a-a288-67c132589329" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ff022a8867f9fc14ba8da589104a689" ns3:_="" ns4:_="">
     <xsd:import namespace="648b8e95-4738-46ce-a500-26cf62829c60"/>
@@ -667,15 +1320,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -683,6 +1327,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89BE802B-7377-4C24-8962-AFDCDCEAC543}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{138A8097-6761-4493-8FE5-68A870F06B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -701,27 +1353,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89BE802B-7377-4C24-8962-AFDCDCEAC543}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1344296E-C402-4B05-8BD6-4ECD9E0491F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="8b6e2155-aeea-4c2a-a288-67c132589329"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="648b8e95-4738-46ce-a500-26cf62829c60"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/recipe_list.xlsx
+++ b/data/recipe_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HU517FJ\OneDrive - EY\Desktop\t\hulseman-site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="14_{4E0B86E8-A170-4B13-AC27-2453BEA09385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{612D75E0-8E7E-400B-85E1-B7E1C30D25E8}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="14_{4E0B86E8-A170-4B13-AC27-2453BEA09385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E5A6E40A-AAE7-45E4-A689-6E9E59734D7E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Chicken Soup</t>
   </si>
@@ -189,10 +189,13 @@
     <t>step_name</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Crockpot</t>
+  </si>
+  <si>
+    <t>img_source</t>
+  </si>
+  <si>
+    <t>static/example.jpg</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,10 +544,11 @@
     <col min="4" max="5" width="10.26953125" customWidth="1"/>
     <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -567,13 +571,16 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -595,8 +602,11 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -609,17 +619,17 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
       <c r="F3" t="s">
         <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -632,17 +642,17 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -655,17 +665,17 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -687,8 +697,11 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10005</v>
       </c>
@@ -709,6 +722,9 @@
       </c>
       <c r="G7" t="s">
         <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -717,6 +733,7 @@
     <hyperlink ref="F5:F7" r:id="rId2" display="www.google.com" xr:uid="{FF12B5CE-3823-41CF-849D-B9446869B5A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1356,16 +1373,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1344296E-C402-4B05-8BD6-4ECD9E0491F6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="8b6e2155-aeea-4c2a-a288-67c132589329"/>
     <ds:schemaRef ds:uri="648b8e95-4738-46ce-a500-26cf62829c60"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>